--- a/data_entropy3t.xlsx
+++ b/data_entropy3t.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FRI\MAG\OBBS\OBBS_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EEFB76F-1567-4F65-9E4A-81E5D3045818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82218A3-FF90-452A-A0E9-63EE85036C9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="20232" windowHeight="11700" xr2:uid="{DF5F88E5-AFB7-4F98-A671-8D6CE9E8F02D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF5F88E5-AFB7-4F98-A671-8D6CE9E8F02D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +621,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -637,17 +647,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -960,15 +973,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926193E5-E4E1-4F8A-BBF4-BA973B522136}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="9" max="9" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1009,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1003,42 +1019,45 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2">
-        <v>84962</v>
+        <v>48820</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
+        <v>174</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10070</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>22</v>
+      </c>
+      <c r="O2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1063,7 +1082,7 @@
       <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>10100</v>
       </c>
       <c r="J3" t="s">
@@ -1072,34 +1091,41 @@
       <c r="K3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <f t="shared" ref="L3:L17" si="0">I3/O3</f>
+        <v>1.01</v>
+      </c>
+      <c r="O3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="2">
-        <v>61734</v>
+        <v>24255</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10160</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -1107,69 +1133,83 @@
       <c r="K4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>1.016</v>
+      </c>
+      <c r="O4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2">
+        <v>19924</v>
+      </c>
+      <c r="G5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10170</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="O5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="2">
-        <v>50331</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="2">
-        <v>28280</v>
+        <v>33704</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10480</v>
+        <v>36</v>
+      </c>
+      <c r="I6" s="3">
+        <v>10190</v>
       </c>
       <c r="J6" t="s">
         <v>16</v>
@@ -1177,104 +1217,125 @@
       <c r="K6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1.0189999999999999</v>
+      </c>
+      <c r="O6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2">
-        <v>65809</v>
+        <v>41145</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10240</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1.024</v>
+      </c>
+      <c r="O7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2">
-        <v>49414</v>
+        <v>41338</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10790</v>
+        <v>169</v>
+      </c>
+      <c r="I8" s="3">
+        <v>10310</v>
       </c>
       <c r="J8" t="s">
         <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="O8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
       <c r="F9" s="2">
-        <v>24467</v>
+        <v>27125</v>
       </c>
       <c r="G9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="2">
-        <v>35626</v>
-      </c>
-      <c r="I9" s="2">
-        <v>11150</v>
+        <v>128</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="3">
+        <v>10360</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -1282,34 +1343,41 @@
       <c r="K9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1.036</v>
+      </c>
+      <c r="O9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="2">
-        <v>60266</v>
+        <v>35233</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="H10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="I10" s="3">
+        <v>10440</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -1317,34 +1385,41 @@
       <c r="K10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1.044</v>
+      </c>
+      <c r="O10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="2">
-        <v>33704</v>
+        <v>52950</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="2">
-        <v>10190</v>
+        <v>124</v>
+      </c>
+      <c r="I11" s="3">
+        <v>10450</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -1352,69 +1427,83 @@
       <c r="K11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="O11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2">
-        <v>66894</v>
+        <v>28280</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>94</v>
+        <v>31</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10480</v>
       </c>
       <c r="J12" t="s">
         <v>16</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1.048</v>
+      </c>
+      <c r="O12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="2">
-        <v>54724</v>
+        <v>33929</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" t="s">
-        <v>98</v>
+        <v>156</v>
+      </c>
+      <c r="I13" s="3">
+        <v>10530</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -1422,34 +1511,41 @@
       <c r="K13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="O13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="2">
-        <v>33162</v>
-      </c>
-      <c r="G14" s="2">
-        <v>10431</v>
+        <v>49414</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="2">
-        <v>11220</v>
+        <v>78</v>
+      </c>
+      <c r="I14" s="3">
+        <v>10790</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -1457,34 +1553,41 @@
       <c r="K14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1.079</v>
+      </c>
+      <c r="O14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>175</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="2">
-        <v>35998</v>
+        <v>21784</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="H15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" t="s">
-        <v>104</v>
+        <v>177</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10880</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
@@ -1492,34 +1595,41 @@
       <c r="K15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="O15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
       <c r="F16" s="2">
-        <v>85683</v>
+        <v>24467</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" t="s">
-        <v>108</v>
+        <v>83</v>
+      </c>
+      <c r="H16" s="2">
+        <v>35626</v>
+      </c>
+      <c r="I16" s="3">
+        <v>11150</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -1527,34 +1637,41 @@
       <c r="K16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1.115</v>
+      </c>
+      <c r="O16">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
       </c>
       <c r="F17" s="2">
-        <v>31988</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
+        <v>33162</v>
+      </c>
+      <c r="G17" s="2">
+        <v>10431</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" t="s">
-        <v>114</v>
+        <v>24</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11220</v>
       </c>
       <c r="J17" t="s">
         <v>16</v>
@@ -1562,45 +1679,52 @@
       <c r="K17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="O17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2">
-        <v>53777</v>
+        <v>45375</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" t="s">
-        <v>116</v>
+        <v>148</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1609,127 +1733,127 @@
         <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2">
+        <v>51069</v>
+      </c>
+      <c r="G19" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" t="s">
+        <v>187</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2">
+        <v>32405</v>
+      </c>
+      <c r="G20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H20" t="s">
+        <v>182</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="2">
-        <v>36410</v>
-      </c>
-      <c r="G19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="F21" s="2">
+        <v>31988</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="2">
-        <v>27125</v>
-      </c>
-      <c r="G20" t="s">
-        <v>128</v>
-      </c>
-      <c r="H20" t="s">
-        <v>64</v>
-      </c>
-      <c r="I20" s="2">
-        <v>10360</v>
-      </c>
-      <c r="J20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2">
-        <v>62088</v>
-      </c>
-      <c r="G21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" t="s">
-        <v>91</v>
-      </c>
-      <c r="J21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="2">
-        <v>52950</v>
+        <v>100210</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I22" s="2">
-        <v>10450</v>
+        <v>151</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="J22" t="s">
         <v>16</v>
@@ -1738,9 +1862,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1749,22 +1873,22 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="2">
-        <v>35233</v>
+        <v>84962</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I23" s="2">
-        <v>10440</v>
+        <v>19</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="J23" t="s">
         <v>16</v>
@@ -1773,33 +1897,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="2">
-        <v>24255</v>
+        <v>49213</v>
       </c>
       <c r="G24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="H24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="2">
-        <v>10160</v>
+        <v>185</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="J24" t="s">
         <v>16</v>
@@ -1808,68 +1932,68 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2">
-        <v>41145</v>
+        <v>85683</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="H25" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="2">
-        <v>10240</v>
+        <v>107</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="J25" t="s">
         <v>16</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="2">
-        <v>34141</v>
-      </c>
-      <c r="G26" t="s">
-        <v>129</v>
+        <v>35679</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10100</v>
       </c>
       <c r="H26" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" t="s">
-        <v>60</v>
+        <v>163</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
@@ -1878,33 +2002,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
         <v>46</v>
       </c>
       <c r="F27" s="2">
-        <v>45375</v>
+        <v>65809</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
-        <v>148</v>
-      </c>
-      <c r="I27" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="J27" t="s">
         <v>16</v>
@@ -1913,44 +2037,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F28" s="2">
-        <v>100210</v>
+        <v>66894</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" t="s">
-        <v>152</v>
+        <v>66</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="J28" t="s">
         <v>16</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1959,68 +2083,68 @@
         <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="2">
+        <v>35998</v>
+      </c>
+      <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="2">
-        <v>19924</v>
-      </c>
-      <c r="G29" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" t="s">
-        <v>155</v>
-      </c>
-      <c r="I29" s="2">
-        <v>10170</v>
-      </c>
-      <c r="J29" t="s">
-        <v>16</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="F30" s="2">
+        <v>61734</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>159</v>
-      </c>
-      <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="2">
-        <v>24148</v>
-      </c>
-      <c r="G30" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" t="s">
-        <v>161</v>
-      </c>
-      <c r="I30" t="s">
-        <v>157</v>
-      </c>
-      <c r="J30" t="s">
-        <v>16</v>
-      </c>
-      <c r="K30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -2029,22 +2153,22 @@
         <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="2">
-        <v>35679</v>
-      </c>
-      <c r="G31" s="2">
-        <v>10100</v>
+        <v>53777</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" t="s">
-        <v>164</v>
+        <v>109</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="J31" t="s">
         <v>16</v>
@@ -2053,15 +2177,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
@@ -2070,16 +2194,16 @@
         <v>46</v>
       </c>
       <c r="F32" s="2">
-        <v>43876</v>
+        <v>36410</v>
       </c>
       <c r="G32" t="s">
-        <v>166</v>
-      </c>
-      <c r="H32" s="2">
-        <v>15521</v>
-      </c>
-      <c r="I32" t="s">
-        <v>117</v>
+        <v>121</v>
+      </c>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="J32" t="s">
         <v>16</v>
@@ -2090,101 +2214,101 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F33" s="2">
-        <v>41338</v>
+        <v>24148</v>
       </c>
       <c r="G33" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="H33" t="s">
-        <v>169</v>
-      </c>
-      <c r="I33" s="2">
-        <v>10310</v>
+        <v>161</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2">
-        <v>48820</v>
+        <v>62088</v>
       </c>
       <c r="G34" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="H34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I34" s="2">
-        <v>10070</v>
+        <v>123</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="2">
-        <v>21784</v>
+        <v>54724</v>
       </c>
       <c r="G35" t="s">
-        <v>176</v>
+        <v>97</v>
       </c>
       <c r="H35" t="s">
-        <v>177</v>
-      </c>
-      <c r="I35" s="2">
-        <v>10880</v>
+        <v>84</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -2195,31 +2319,31 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="2">
-        <v>33929</v>
+        <v>50331</v>
       </c>
       <c r="G36" t="s">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>156</v>
-      </c>
-      <c r="I36" s="2">
-        <v>10530</v>
+        <v>58</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
@@ -2230,66 +2354,66 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F37" s="2">
-        <v>32405</v>
+        <v>43876</v>
       </c>
       <c r="G37" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" t="s">
-        <v>182</v>
-      </c>
-      <c r="I37" t="s">
-        <v>183</v>
+        <v>166</v>
+      </c>
+      <c r="H37" s="2">
+        <v>15521</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>184</v>
+        <v>145</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="2">
-        <v>49213</v>
+        <v>34141</v>
       </c>
       <c r="G38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H38" t="s">
-        <v>185</v>
-      </c>
-      <c r="I38" t="s">
-        <v>20</v>
+        <v>146</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -2300,13 +2424,13 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
         <v>25</v>
@@ -2315,16 +2439,16 @@
         <v>14</v>
       </c>
       <c r="F39" s="2">
-        <v>51069</v>
+        <v>60266</v>
       </c>
       <c r="G39" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s">
-        <v>187</v>
-      </c>
-      <c r="I39" t="s">
-        <v>188</v>
+        <v>79</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
@@ -2335,7 +2459,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K39">
-    <sortCondition ref="J1"/>
+    <sortCondition ref="I10"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
